--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/30_Erzincan_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/30_Erzincan_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB3A0BA-8234-4502-A028-2409BE79CC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53EE5627-C18E-4A98-963E-B5FB8B8D936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{68C0FB50-A5C6-46C7-A3B1-4DD376E655CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{0AD6D182-12C3-4B59-BDD1-4FA4939E8EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -946,13 +946,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{888C783D-6E04-4FC1-8E34-298E008DC0E5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{03D8FA84-58CF-46AA-A060-535149B5D03E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{CD4201D5-D29D-4428-9A7A-BE437A250634}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3E2467F6-DA6F-499A-8672-AEA8E94333BF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{540BEFB4-C5ED-443D-883E-C9A72BC461AD}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{DF3B7063-2CED-4D5C-88B5-E4F3EC5E7B4F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D09BA326-5A2B-4BC2-AEF0-6CA626014BF9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{265DE927-825B-4CC8-B27D-C1FB1A7387E0}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{53745A31-5210-4F57-BD16-9921F1038649}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5FAC08D1-3762-455E-8507-62A4DF6AF20A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{55748679-31E6-4922-A52C-A264D5E6B2DE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{3F97E563-70A7-416A-8A30-8C2563460376}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{AD93737D-3428-46A0-B95D-74A6E2B66AC1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{51D2C0BD-EC83-429C-8E18-C010DC05F7C4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1322,7 +1322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F403072-BEB4-456D-BCA8-6BF9C1DAEEAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCC4026-E1AA-4342-A98D-1D74C165B82B}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2534,18 +2534,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2789A3EC-6E54-441A-AF81-61E065E068EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D31B7062-2330-4C56-AAFF-82A637718B5E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CDA99E36-F684-49DA-81A7-08AD75F8AC80}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{77DE7630-9B6C-45FD-896D-6B5A4F03444C}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6948685A-7E4C-4106-8E10-1868F9AA2262}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3EB5C86B-5B7A-4CE0-BEFA-C22431D6755B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DCB54363-BF3C-4FDA-988A-2CD8E0E61B41}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B074A0D2-4B14-460F-BC44-5FF9223FF826}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DBFA7FF5-B0C2-45AB-B584-8FC0688A79B6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A659CBD6-E85A-467A-B798-CC6352F97022}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04577684-E781-4A68-8345-8272A1D9C400}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8856EC36-948E-44FC-9C9F-D6055E59F740}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A303CDA5-80D5-48D3-B5FE-75351A3EC53F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{79D21FBE-AE44-474D-B4E5-706AF186E4C1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{04AB81D2-3E02-418E-9F16-1A057ED0D3A2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DB519A7A-C43D-416F-99E0-E1BBD9086C35}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5B84CE50-2734-4242-9D16-BE9629ECC27C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7CAA48B0-7A4C-4835-8752-450DDB30055E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4638B6BE-31F1-4128-BF42-76177DEC3A1F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2EB60091-7395-4DB0-AC06-A25396842B46}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4879EC1C-2AE2-415F-92C5-BE882D938C13}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5F13960-6CA6-4DB3-8E27-F19255564205}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{972B8629-6104-4343-B607-7B3E22D9CD20}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2426DC36-AA41-4E6F-9CD4-4269936CB00A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2558,7 +2558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750779A7-9914-47BD-AA3B-DDBCAE3153C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD21A539-1459-4E67-BD41-344D93C98F08}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3757,18 +3757,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BCC6879-32BE-4AB8-A9A7-5A11630E4B88}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5BE67916-3896-4218-87FE-76B1AE754E25}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5767EE20-B2CC-43A9-AFD6-9803CA27136D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{18B4345E-05C5-407A-8929-B8DE20352A37}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9CF622E1-87B8-4219-9B4C-8C6598DDCC75}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30C484E8-4044-4706-8984-D070892A9C29}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC3C65E4-A1DA-4924-9919-DB2D2558DA63}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B4C03D38-7738-4A4F-9D26-A7195C909114}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA2EE0AC-4B79-484E-94E8-D2A512065A3A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{806B02E8-500F-4C98-9D60-E6C977405D51}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E99970D0-D814-422D-AEED-F6B954759048}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{098435F5-DC94-4392-BE4B-0FBFFEA6F6ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{804466D1-C46C-4D6B-BB3A-D090BFFA9DB2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8480E18D-F255-45B5-9E7F-137AD590E581}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3ECC8000-4A15-42B3-8F45-84E9E6D6F8EA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{229E643F-036B-4A4B-A2FF-38BD2D3CD810}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7C5562DA-62B1-487F-A4DB-D6F4BDB25ACA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{515A2110-38E2-49CA-8660-270C45BD09C6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{849D670C-61D7-43BD-885D-96833F9A541F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3BC03FB1-3B1B-4CEA-8D52-575DD20CCBF4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AF92C51-397A-439E-A1B8-05B3369A9A8F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00395F4D-E94A-4106-A7B0-A640EF4AE0E2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C827989C-155D-46B3-AAF9-371F9096456C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{080929E5-AACA-4B3E-B10A-A343D68E0D21}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3781,7 +3781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88AE129-D895-418B-8458-37CCD7794EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB51B9A1-2324-41CB-8BBA-E19DE6E3CF83}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4982,18 +4982,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C8DC4A8-5FD5-4E01-8836-87E0E181C964}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9EC1973-4BBE-4564-A0EF-5D89B2185D63}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{36DDAA9A-7F7E-4DB3-A2AF-5034557397FA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5169BA79-A7C5-473E-B810-1718144F7892}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2645F7C9-0B0C-4589-9B1B-07178B0AA6F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9CB62FC-79ED-4BA7-8582-D204518815A4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCB9EB64-7F26-41CF-AAD8-DCD97340662B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F93023CB-883E-42DF-8A19-3A500FBB2BB0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C8A32CF-A75E-443B-9199-051D3AC7E7EC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2CB38A0-3626-4E7C-8AB7-4B4D1B525D4D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70E9628A-48BD-4E62-8663-021524AFBDC1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6764BC87-4619-4118-9FAA-1DC3290A133E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DE26F60-838F-4F2C-AA17-E3248F8110C8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2161AB01-9C04-4791-A0CE-68A4E1EAA092}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5B48F401-8B56-426D-969C-0F92E1506657}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6CF88AA4-62A3-4F37-8C21-D1DA90E3754F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{96B8F050-3755-403B-AF8F-53F58F5A4AC9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{307DE102-83F2-4AEB-9467-F0DE843B8AFB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADC964D6-45BF-4619-B925-EE8682412EE7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A766BA4D-64B5-474F-8457-37CBB86B8622}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5D6E69A-B9F8-4E6A-AB20-9281A19E9D8B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D7BC4BA-FF75-4E13-8BA0-01028735A80B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64B6BE12-1703-4E41-82D2-0519CF237EFC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C10FADA1-B23E-4126-988D-FE9A0EE0BC81}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5006,7 +5006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7F9917-9992-4607-B261-D1DB84097D84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4016C55-98E7-4AE9-B554-28B93EFF7180}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6196,18 +6196,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CE8BC26-E05A-4052-8578-401BC065A6C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2BA523B0-8BE4-4651-835F-D2868D213582}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{703B181F-92BB-4BB0-8D16-013CEDA79A60}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C3554108-ED71-4D7C-8B1E-1E601C2C3320}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{38033D17-4549-4566-917A-14A039299844}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F432D871-F956-404F-B7D4-30F112BF0A2C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D8186BC-4BFA-4202-A124-2C5259BAA4CD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F88A1681-6245-44F8-9E7C-A94F429815FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF04012B-9D88-47FA-83CD-3F25B8388BE1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F6B6734-A864-446B-969C-AFADFCB8881B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00D426EF-644E-48AC-8424-CD0AA234823C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7310738-E487-4317-9233-D5BE9940D804}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE7111F9-2157-4912-A62F-C149A050E4C6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42BFB1F7-2FB6-4DAF-809C-5BE0165DF559}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{82EFB306-DA58-4192-919C-BC55842DCD9D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD9F3136-170D-41B5-9DF0-1A56D37FA7C6}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{866FCC58-B6DA-427A-9560-F819886AEADD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CEE01EF4-00AA-4260-9DFB-34A8BCCF5AC2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F415EFE4-30A7-415E-A865-88202C868618}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD6EB03C-9167-468B-A4CA-2DBCCF1F0C99}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6214B6EE-A905-4B0D-8549-2B03C10AAE9D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{549A6538-7CB3-4467-BB01-EBB3CA0984FE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6E9BB8C-D597-4C49-8ECD-ABE50C429DE7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9794E2F0-5C9B-4A07-B36C-06FBD3CEC572}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6220,7 +6220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85A024F-3B58-4932-BCB2-866D1AABEDA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5B3131-4343-4EC2-B784-E02D1E30436D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7427,18 +7427,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{344BC565-4543-48CE-906F-0200C5C674F9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB27635E-17AA-4D39-88D7-7453F3E9578D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{212AAA20-D20B-4AFF-ADB3-005010AD317F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F6D7CAC3-80D0-4B27-A5D7-4EEC1A49AC5F}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{242F1221-E40A-41CA-AD47-F0FC7DAE06E0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{48EFE510-0E4F-4418-8C87-34051A5FD25D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{991445F1-6411-4F43-9EDD-75F5A683089D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E648C264-78E4-422F-9648-E1CE954E90C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5A6CE8D-B2F2-4D4C-AFC8-DD265E6D734D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3A556C5-5FF0-4E73-A0C4-AFBBDBC39D22}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E59C8AA-DCB4-46B1-9F64-36C2799B4948}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3AB6C7F3-D6EB-4D95-BFCD-7A908D1D5F19}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{25130100-BD05-43BE-BC80-A0BF22281C1E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C1C923E-27D0-40A2-BBA1-40C55C311812}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B7993943-3089-4FDE-B413-A093FB26197F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B186B61A-54F3-4D63-B42A-691450C008B7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1993BC03-1B8A-42AD-B364-2C4B65E0747D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3B52184-EE89-4C78-A4E0-E39D603C4F5F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2639E46C-7046-4F05-8A97-9DDF402A7DCB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C9D62D63-477A-4371-868E-D029971A4E89}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63B96016-581B-41DD-9EE4-C5D006972570}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{77A34348-622F-46F8-BC73-CCE4EA2F9795}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F0CBF96-E994-4446-BA7F-27358C1D52BA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF78491A-4B58-4340-A10B-FF8AA5C34A64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7451,7 +7451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2098FA70-4474-46D5-BFCF-F583812F6B09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFB5417-08A4-4138-AA78-09756EF37277}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8658,18 +8658,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4399AE3-78BC-4620-93B5-81565988D870}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{872CECC4-7E8A-412E-A1BF-266D19767B2F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4EBC3E4C-2F6D-4C76-B434-8A8BADB4473E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C26E01C-1110-448F-866F-305BDA5ED83A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F0C77777-174C-4300-BF01-75E51FE96F49}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{78909A29-05E4-4D49-A393-DCFADBEEFF42}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C882F35-B142-4274-9602-4E93B5DD871B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9591B6B8-E001-4687-A939-772E08FE2714}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8AA17DF-EE38-40CF-868E-E2E9E69FB21E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17610AFC-268E-46B6-B6E8-5C82C52C7090}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{669785B4-5F23-4315-B52F-7084619B9A2B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{787F4322-979B-44F2-BDA5-2F9E65125B22}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F6ED2B6-1B4D-4B3B-BA22-AB9237AE3F4A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27A16567-3899-4060-B4A3-C769188C9085}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{33327062-12A5-4AF4-B5DB-96DEACA801A1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A6556939-00C1-4647-82D3-1BCB9E4EA356}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2419710B-F75D-4E31-A19E-8A644049251A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76833F03-B91C-4AEE-91A2-8939502663E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D22759DB-1441-46F9-9985-EDD077638DC6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F585243-E766-45E6-A45F-51CC19DDDD26}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CDFB6F19-3708-4430-841D-EDEABE04967C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{367FAA52-72AD-4C3D-BBDE-31A507FCBA60}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C651925-D4F7-4208-A377-49CC8E864A0E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C489E99C-EE9D-4B7E-B75A-910750A47F4A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8682,7 +8682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157F7588-248E-4D6B-ACC1-5D241867EB75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13582AB-8C89-44A5-BD2C-851ECDAEB9A7}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9889,18 +9889,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A1F24AB-E181-432F-BE29-FE8298A846EC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFB8A013-9F18-45FB-8720-1AD0FDDBB05A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{65A61E19-07BA-4E3D-BB5C-FD52FEC754BC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{90C1A69C-F5A6-47D8-9114-20C23ADB033E}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C5993441-C9DB-4029-AA54-28AF740E5EC1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D4C5DF07-EF77-4AC6-B751-5216F6C76498}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{817B246E-847B-4BEF-9C40-D4BAC8A51EA8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2D0D5FC-540D-4F96-852F-30F06B9F0A66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BF046D9-A8CD-49C9-B4BB-6DC824958623}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A104DDF3-508D-4FAD-8290-51C70C784942}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1799EA4-B77D-41E9-873B-C8CD6BCE38B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B61423C3-D6E6-48AE-85C4-89A2F144DC33}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3915170B-D4DC-409C-856A-96A2B61553CC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4085D61-86B7-437B-BC64-2D8D711D290D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{779F45CB-9427-4FB7-BF00-CC641DCB748A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BCE36E63-3C61-4AB9-86C1-3B7BB53590F7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4084B72B-77AC-459E-A330-7C12D05F1F1E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D19D57D7-7179-453C-AB08-382EB0E6CFD2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC1D94CF-1228-4866-800C-0C78A4FC035A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{998BC7AE-B2F9-46E1-8B7F-0A688DF5A491}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19DAC0C8-B183-4FED-B0CB-2CFADC2CD324}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D1768A2-1BF7-4FB2-9C0E-C0B10F3D6433}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2CECE08-B2D6-49DF-95E6-1154B878B74B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8241E4C-25D3-411A-8C85-78AA77ECB376}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9913,7 +9913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48241EF-EF78-471D-B59F-CEC6FA235335}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECC8CD3-13F2-4129-9FA1-DE6859B04D80}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11120,18 +11120,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D1C93C2-7580-46E0-BF76-646A3C3B5CE5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06791586-CF95-4DE1-BA0E-810AA0A7E3B0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AD54BBE3-25E1-4C3C-B58B-DF89EC00648C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A5C1F0EA-355E-4692-A307-77837C04751F}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A5AD28E5-D4FC-4155-B081-1DF504B644B3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55048756-847E-4CB0-8BB0-83B677E72A63}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B8E104A-3071-4A11-B965-2016D4EF997C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B468265C-1A61-4411-9D89-AB79943591F8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FDCC68DD-061D-4491-8851-2D163ECF8791}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1256FB0E-DB05-4EFD-8550-35EC0B9F5F72}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FB0E955-B556-46E5-A0DE-71C07CCF6863}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A88C6F34-A8F4-4392-B9C9-D6F05CF6F938}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC5B51F7-AEC5-4E9C-ACE5-34A9993AE952}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62544EF2-485A-4523-BDCB-CAFB39FF1194}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8D96B573-1672-4A36-A85A-26569CAAF07D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3AAEA00B-C217-482F-B7A1-D599C3DEE2FD}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D68BCD3E-DB7D-4746-A5FE-8B227AB09A8A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E5F4386-0351-4D8E-A57F-F8EB618E7939}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ABE20251-BF35-4430-BD36-A8EA7662D57C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3A785AF4-28D3-45FD-8F51-3E554644AAF7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4661053-C966-4625-9808-57BD9555F4A5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97C78862-EEC6-4490-99C1-D3692D3BED5E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{689ECD3F-8345-47C2-B167-4FC986C4CEED}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D41796A-8B22-473C-A3D6-9BDCAF74FB2B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11144,7 +11144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800BC9B1-7108-4E03-B995-44047B2587B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD76857-19FF-4561-8AC8-EB98B62F4A70}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12351,18 +12351,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53DE2BC5-5E31-482F-AFCF-B1B2D7108C6E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CFF73538-9E61-4486-B00E-CBFB8126EDCA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{44598D71-954D-4088-BA2C-A39F9A71C115}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C8F08B61-203F-47F2-8B59-A4C1589B9836}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F5016598-90D7-4EC6-8725-3186886B1D8A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E28288D5-C27F-4EB2-B1AC-AD27A25FBCE3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{007DCA00-A071-423F-8FDC-246CECC661F6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CECFF91C-8CEA-43B3-9791-E9AA1102D86A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0939614F-505C-46AE-8191-17BB8A338B15}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8FFC1F53-AAB6-477C-8DB0-40B7BF558D01}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0227ADD-CCF3-4804-8494-981F1A07D43B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A68B6E18-F51D-4F02-9767-B4620E1C24A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61CF2170-8B87-404C-8D2F-40D5706AE8A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1475E3BD-B52F-40ED-B7C6-D99C0CE7BFB8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{84050118-DEE1-409D-AB13-257C1C8B37F5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A94DF8F-E44A-46D3-A836-2AE1A3106BAE}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4A6DCD2A-0F01-4A54-8F23-4A28C56F5816}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{47ECA202-10C3-448C-B7CF-06A0AFC71D7D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6091DD7-3927-4AF7-9A65-027434874B22}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C8F1F633-D463-40BF-B924-E72AC06FA207}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9290FEDC-8107-439B-B02C-9C8E02751239}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B035953-5BEB-457B-9977-DE09B5C47B58}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5859932-5A86-43E4-A641-BB3F8C30C948}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3989C963-47E6-4239-AB51-FA424289AFFE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12375,7 +12375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDB76CA-EB86-44FD-A19D-943337F339B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21CB2E4-13E8-4897-8058-BCCB590DFA82}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13582,18 +13582,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8041B845-CF8B-424A-9741-2EA16502A1B1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FA0CF54-FF19-4CA8-99E0-D584C45EE4AB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{95E3750C-F6CA-4114-B678-DA93B20161EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{24CC60E5-A320-4133-AB18-F7F24FBC2F19}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F57C0335-32F5-4500-BD08-2FC87775E1D3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81701EFB-5E94-44E8-99D7-5A70B90F1BC2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA86E55D-7BBD-42EF-8246-8CB777AE7E15}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{636A4E6E-A2CD-48D0-8BA3-C614B02BB924}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C1163DE-CE9D-4385-8376-FA233E3E53DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D6B2A852-7E3E-469A-BBE4-99BFF807D56F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{96B4F57B-E55B-4393-8649-F4EA992430B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13F761EA-E659-481C-B6AF-AAA179900A29}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28F964E7-C22C-4D30-88C2-CF7C8992F640}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCC69B79-BA1D-43A1-8C88-27FCF058EB31}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3DA0BB53-F8BE-4A95-BEA6-9B3F9BCE5C9C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{93274CE2-4F78-431F-83E3-287F7C93B72A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5BC58594-CD3D-4266-A080-D43966F1C49D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F874496-A38B-47AC-8A90-2D0ED2CF7936}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0AC68514-77DE-4DC4-ACED-E95F4A622CEF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E077C3CC-3C72-41B2-9FC6-DE1169C91842}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A348518C-FC10-4AD8-A25E-66DAEC6DF712}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2EB8D9DF-975F-4ED4-91F2-7B9F22AE95CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA80D089-9957-49D4-819B-B362A2A4C432}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4476D4F2-7A71-49C8-AA3F-6410A61EEC82}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13606,7 +13606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8B94EB-2731-4A5C-AD76-A5EEB07D89E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F0288A-A183-4A69-9E79-09C794DB009B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14815,18 +14815,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0B8A7DF-74D9-40DE-836A-8009A12EC1E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BBB10CCB-3375-425B-B528-09BA281FDA02}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7C111770-E721-408B-8A3F-A84881C2B337}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6BD87348-9808-4214-B30C-8EF01FD069F8}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D8646EF9-A4E3-4940-B278-FE33CCA43B35}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B452AA4-8ABC-462B-B972-983F3C29957C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2BD4A462-4271-4FBD-83A7-4E2F20D1A16C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96758D73-C241-45BE-BF3E-8F12030B66D1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BB001D9-24E9-4602-865D-ED8040DDDC8B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BA23DF8E-B8EF-4CA3-82F1-14AA71F28263}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11291858-A755-4B9D-91EA-496B5867738D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5DE7F4B4-321B-4FF2-86B2-E7BE758E3FD4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61CFCE7A-9974-4890-8962-990C87611356}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED3D5E5F-087A-4E6A-AD49-34A083585690}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0CA026FD-8A65-4F64-8692-C50BD64EA0AB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ECDDED67-5905-4A73-89D8-17ABEF483823}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EE8D8C2B-5E51-4052-8CA2-1CF845E86F31}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EF03EB38-362B-4921-A7B9-3D5AEF031AA7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5926CB3B-090E-499D-B8D0-F162F70B3B65}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6113F1F-7143-4814-95A8-93801CE8A754}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFAF75F1-3AB3-4AF9-A8DE-AA7192805E3F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AAA9908D-A372-4501-A515-AF2ACF96DDE2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDBD9B09-D611-4887-9C13-44489EE43F64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5FF92D9-BB75-4B2E-9894-29FD9342168A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14839,7 +14839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1AE989-919A-488F-B167-87998A2BAF75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47091372-EFA5-423C-8915-C4B3A249811B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16048,18 +16048,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F51657D-E8A8-4D8D-9284-F34302A3908B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1093B98-9CEE-4445-9AB9-ADE7D6812158}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A819DC08-1DC5-4037-A158-4451DFBC6E0A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{07C4677D-0772-4A1D-8CC7-7E6469175FEC}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5113FF55-C4EC-4DD0-BF96-D24277E2AEDB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{263DE97E-EA6A-4CD4-8A18-79ECAB83ED2D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{388E9213-EE60-45D6-80A7-56B84566943A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{778C1617-B0FB-4333-9364-11E59A024C12}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B13BC53-7296-4EB9-B163-ED94335244A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A804B09-557B-4FEC-AEF2-C66A9FA2A7FE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06193C50-7267-4940-BEB5-84B10B4955FA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE3AEF32-906C-402D-A67B-9F69BBA66AE1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30D4BE7F-F560-477E-8B3C-71E32A605EE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6040A20A-9DF5-4496-966A-5E701EF3E560}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2B5F445D-07D7-45E1-8580-A76716148476}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43BA5041-F273-4AF3-A845-CBD24BD96290}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3E3F6216-3F3B-4862-A11F-EB32ABE97C95}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E0367A6-67EA-4575-A70D-073618AF384D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3EDF907-28E2-49B7-A6A8-6D7BE1EE5CA0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F98856D8-7098-4716-8999-A96EB83058CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4126102-A46B-445C-8CE5-90FE512E4D65}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8FB0807-F138-4CA8-866D-CD87DA92D492}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D4B8DD4-B22E-41B5-814D-C756B16A2EC8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{196DF93F-438D-4AC5-8E0F-6B7659B9F39A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
